--- a/无水洗车开发计划WBS-git.xlsx
+++ b/无水洗车开发计划WBS-git.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300"/>
   </bookViews>
   <sheets>
     <sheet name="项目WBS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="109">
   <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,10 @@
   </si>
   <si>
     <t>朱葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,19 +1280,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,13 +1310,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1787,10 +1791,10 @@
   <dimension ref="B1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G76" sqref="G76:J78"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1807,7 +1811,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="10" customFormat="1" ht="26">
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="5" spans="2:13" ht="14" customHeight="1">
       <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1942,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="31"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="32"/>
       <c r="E6" s="26" t="s">
         <v>48</v>
@@ -1988,7 +1994,7 @@
     </row>
     <row r="8" spans="2:13" ht="14" customHeight="1">
       <c r="B8" s="31"/>
-      <c r="C8" s="38"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="32"/>
       <c r="E8" s="26" t="s">
         <v>48</v>
@@ -2011,7 +2017,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="31"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="21" t="s">
         <v>60</v>
       </c>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="10" spans="2:13" ht="14" customHeight="1">
       <c r="B10" s="31"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="31"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="32"/>
       <c r="E11" s="26" t="s">
         <v>48</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="12" spans="2:13" ht="14" customHeight="1">
       <c r="B12" s="31"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="30" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2109,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="31"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="32"/>
       <c r="E13" s="26" t="s">
         <v>51</v>
@@ -2125,7 +2131,7 @@
     </row>
     <row r="14" spans="2:13" ht="14" customHeight="1">
       <c r="B14" s="31"/>
-      <c r="C14" s="38"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
@@ -2149,7 +2155,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="32"/>
       <c r="E15" s="26" t="s">
         <v>53</v>
@@ -2350,7 +2356,7 @@
     <row r="23" spans="2:13" ht="14" customHeight="1">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="26" t="s">
         <v>53</v>
       </c>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="31"/>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -2506,7 +2512,7 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="31"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="21" t="s">
         <v>32</v>
       </c>
@@ -2518,7 +2524,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="31"/>
-      <c r="C31" s="41"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="21" t="s">
         <v>33</v>
       </c>
@@ -2532,10 +2538,10 @@
     </row>
     <row r="32" spans="2:13" ht="14" customHeight="1">
       <c r="B32" s="31"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -2582,10 +2588,10 @@
     </row>
     <row r="34" spans="2:13" ht="14" customHeight="1">
       <c r="B34" s="31"/>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -2630,10 +2636,10 @@
     </row>
     <row r="36" spans="2:13" ht="14" customHeight="1">
       <c r="B36" s="31"/>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -2753,7 +2759,7 @@
       <c r="C41" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="23" t="s">
@@ -2777,7 +2783,7 @@
     <row r="42" spans="2:13">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="43"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="23" t="s">
         <v>63</v>
       </c>
@@ -2799,7 +2805,7 @@
     <row r="43" spans="2:13">
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="26" t="s">
         <v>48</v>
       </c>
@@ -2920,7 +2926,7 @@
     <row r="48" spans="2:13" ht="14" customHeight="1">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
-      <c r="D48" s="34"/>
+      <c r="D48" s="35"/>
       <c r="E48" s="23" t="s">
         <v>63</v>
       </c>
@@ -3205,12 +3211,12 @@
     </row>
     <row r="60" spans="2:13">
       <c r="B60" s="31"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="38"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="3">
         <v>2</v>
       </c>
@@ -3228,12 +3234,12 @@
     </row>
     <row r="61" spans="2:13">
       <c r="B61" s="31"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="34"/>
+      <c r="F61" s="35"/>
       <c r="G61" s="3">
         <v>3</v>
       </c>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="62" spans="2:13">
       <c r="B62" s="31"/>
-      <c r="C62" s="38"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="30" t="s">
         <v>74</v>
       </c>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="63" spans="2:13">
       <c r="B63" s="31"/>
-      <c r="C63" s="38"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="31"/>
       <c r="E63" s="24" t="s">
         <v>63</v>
@@ -3299,7 +3305,7 @@
     </row>
     <row r="64" spans="2:13">
       <c r="B64" s="31"/>
-      <c r="C64" s="38"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="32"/>
       <c r="E64" s="26" t="s">
         <v>48</v>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="65" spans="2:13" ht="17" customHeight="1">
       <c r="B65" s="31"/>
-      <c r="C65" s="38"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
@@ -3347,7 +3353,7 @@
     </row>
     <row r="66" spans="2:13">
       <c r="B66" s="31"/>
-      <c r="C66" s="38"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="31"/>
       <c r="E66" s="24" t="s">
         <v>63</v>
@@ -3369,7 +3375,7 @@
     </row>
     <row r="67" spans="2:13">
       <c r="B67" s="31"/>
-      <c r="C67" s="38"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="32"/>
       <c r="E67" s="26" t="s">
         <v>48</v>
@@ -3391,7 +3397,7 @@
     </row>
     <row r="68" spans="2:13">
       <c r="B68" s="31"/>
-      <c r="C68" s="38"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="30" t="s">
         <v>80</v>
       </c>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="69" spans="2:13">
       <c r="B69" s="31"/>
-      <c r="C69" s="38"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="32"/>
       <c r="E69" s="24" t="s">
         <v>63</v>
@@ -3439,7 +3445,7 @@
     </row>
     <row r="70" spans="2:13">
       <c r="B70" s="31"/>
-      <c r="C70" s="38"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="30" t="s">
         <v>81</v>
       </c>
@@ -3463,7 +3469,7 @@
     </row>
     <row r="71" spans="2:13">
       <c r="B71" s="31"/>
-      <c r="C71" s="38"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="31"/>
       <c r="E71" s="24" t="s">
         <v>63</v>
@@ -3485,7 +3491,7 @@
     </row>
     <row r="72" spans="2:13">
       <c r="B72" s="31"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="32"/>
       <c r="E72" s="26" t="s">
         <v>48</v>
@@ -3507,10 +3513,10 @@
     </row>
     <row r="73" spans="2:13" ht="14" customHeight="1">
       <c r="B73" s="31"/>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E73" s="24" t="s">
@@ -3535,8 +3541,8 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="31"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="24" t="s">
         <v>63</v>
       </c>
@@ -3579,10 +3585,10 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="31"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E76" s="24" t="s">
@@ -3605,8 +3611,8 @@
     </row>
     <row r="77" spans="2:13">
       <c r="B77" s="31"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="24" t="s">
         <v>84</v>
       </c>
@@ -3801,12 +3807,12 @@
     </row>
     <row r="85" spans="2:14">
       <c r="B85" s="32"/>
-      <c r="C85" s="34"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="3">
         <v>2</v>
       </c>
@@ -6147,24 +6153,36 @@
   </sheetData>
   <autoFilter ref="B1:M304"/>
   <mergeCells count="64">
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="F73:F78"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C59:C72"/>
+    <mergeCell ref="B38:B78"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
@@ -6181,36 +6199,24 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="F73:F78"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C59:C72"/>
-    <mergeCell ref="B38:B78"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="F53:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
